--- a/test/fixtures/upload_status_changes.xlsx
+++ b/test/fixtures/upload_status_changes.xlsx
@@ -88,14 +88,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -148,7 +148,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +467,7 @@
     <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
